--- a/Project Outputs for Field_control/BOM/Bill of Materials-Field_control(Populated).xlsx
+++ b/Project Outputs for Field_control/BOM/Bill of Materials-Field_control(Populated).xlsx
@@ -156,7 +156,7 @@
     <t>XHFB9500G</t>
   </si>
   <si>
-    <t>J5</t>
+    <t>J5, J6, J7</t>
   </si>
   <si>
     <t>TE Connectivity AMP Connectors</t>
@@ -799,7 +799,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>47</v>
